--- a/Xports/UD_French-Rhapsodie/VERB-no-obj.xlsx
+++ b/Xports/UD_French-Rhapsodie/VERB-no-obj.xlsx
@@ -8191,6 +8191,9 @@
     <t>advcl</t>
   </si>
   <si>
+    <t>aux:tense</t>
+  </si>
+  <si>
     <t>parataxis:parenth</t>
   </si>
   <si>
@@ -8204,9 +8207,6 @@
   </si>
   <si>
     <t>nmod:appos</t>
-  </si>
-  <si>
-    <t>aux:tense</t>
   </si>
   <si>
     <t>SpaceAfter=No</t>
@@ -12218,7 +12218,7 @@
         <v>1954</v>
       </c>
       <c r="E72" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F72" t="s">
         <v>1483</v>
@@ -12227,7 +12227,7 @@
         <v>1846</v>
       </c>
       <c r="H72" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="I72" t="s">
         <v>2667</v>
@@ -12236,16 +12236,16 @@
         <v>2674</v>
       </c>
       <c r="K72" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="L72" t="s">
-        <v>2713</v>
+        <v>2725</v>
       </c>
       <c r="M72" t="s">
         <v>2667</v>
       </c>
       <c r="N72" t="s">
-        <v>2731</v>
+        <v>2667</v>
       </c>
       <c r="O72">
         <v>-1</v>
@@ -13737,7 +13737,7 @@
         <v>2480</v>
       </c>
       <c r="L104" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M104" t="s">
         <v>2667</v>
@@ -15523,7 +15523,7 @@
         <v>2485</v>
       </c>
       <c r="L142" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="M142" t="s">
         <v>2667</v>
@@ -18692,7 +18692,7 @@
         <v>2031</v>
       </c>
       <c r="E210" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F210" t="s">
         <v>1521</v>
@@ -18704,7 +18704,7 @@
         <v>2665</v>
       </c>
       <c r="I210" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="J210" t="s">
         <v>2675</v>
@@ -18739,7 +18739,7 @@
         <v>2032</v>
       </c>
       <c r="E211" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F211" t="s">
         <v>1521</v>
@@ -18751,7 +18751,7 @@
         <v>2665</v>
       </c>
       <c r="I211" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="J211" t="s">
         <v>2675</v>
@@ -19089,7 +19089,7 @@
         <v>2706</v>
       </c>
       <c r="L218" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M218" t="s">
         <v>2667</v>
@@ -21289,7 +21289,7 @@
         <v>2495</v>
       </c>
       <c r="L265" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M265" t="s">
         <v>2667</v>
@@ -24276,7 +24276,7 @@
         <v>2474</v>
       </c>
       <c r="L329" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M329" t="s">
         <v>2667</v>
@@ -28623,7 +28623,7 @@
         <v>2502</v>
       </c>
       <c r="L422" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M422" t="s">
         <v>2667</v>
@@ -29563,7 +29563,7 @@
         <v>2500</v>
       </c>
       <c r="L442" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="M442" t="s">
         <v>2667</v>
@@ -40663,7 +40663,7 @@
         <v>2341</v>
       </c>
       <c r="E679" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="F679" t="s">
         <v>1489</v>
@@ -40681,10 +40681,10 @@
         <v>2667</v>
       </c>
       <c r="K679" t="s">
-        <v>2704</v>
+        <v>2476</v>
       </c>
       <c r="L679" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="M679" t="s">
         <v>2667</v>
@@ -40754,7 +40754,7 @@
         <v>2341</v>
       </c>
       <c r="E681" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="F681" t="s">
         <v>1489</v>
@@ -40772,10 +40772,10 @@
         <v>2667</v>
       </c>
       <c r="K681" t="s">
-        <v>2704</v>
+        <v>2476</v>
       </c>
       <c r="L681" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="M681" t="s">
         <v>2667</v>
@@ -44449,7 +44449,7 @@
         <v>2389</v>
       </c>
       <c r="E760" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
       <c r="F760" t="s">
         <v>1864</v>
@@ -44467,10 +44467,10 @@
         <v>2697</v>
       </c>
       <c r="K760" t="s">
-        <v>2704</v>
+        <v>2476</v>
       </c>
       <c r="L760" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="M760" t="s">
         <v>2667</v>
@@ -46344,7 +46344,7 @@
         <v>2484</v>
       </c>
       <c r="L800" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="M800" t="s">
         <v>2667</v>
@@ -46861,7 +46861,7 @@
         <v>2478</v>
       </c>
       <c r="L811" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="M811" t="s">
         <v>2667</v>
@@ -48262,7 +48262,7 @@
         <v>2507</v>
       </c>
       <c r="L841" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="M841" t="s">
         <v>2667</v>
